--- a/To Be Modeled/Canada Goose.xlsx
+++ b/To Be Modeled/Canada Goose.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E93EE8-099A-E64F-BABC-D244CD136082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E1B62C-B235-7C4F-8D1D-1F1B1DF17575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -18,20 +18,6 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <definedNames>
-    <definedName name="_xlchart.v1.10" hidden="1">'Sheet 1'!$B$28:$J$28</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Sheet 1'!$B$3:$J$3</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Sheet 1'!$A$107</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Sheet 1'!$A$28</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Sheet 1'!$B$107:$J$107</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">'Sheet 1'!$A$107</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">'Sheet 1'!$A$28</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">'Sheet 1'!$B$107:$J$107</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">'Sheet 1'!$B$28:$J$28</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">'Sheet 1'!$B$3:$J$3</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1029,18 +1015,6 @@
     <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1067,12 +1041,6 @@
     <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1090,6 +1058,24 @@
     <xf numFmtId="9" fontId="12" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2222,12 +2208,13 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Holdings"/>
       <sheetName val="Treasuries"/>
       <sheetName val="All Stars"/>
       <sheetName val="ROIC Port"/>
       <sheetName val="To Be Modeled"/>
-      <sheetName val="7 Powers"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="Stable Growth"/>
+      <sheetName val="High Growth"/>
       <sheetName val="Compounders"/>
       <sheetName val="Small Cap Gems"/>
       <sheetName val="Private Companies"/>
@@ -2244,14 +2231,14 @@
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12">
+      <sheetData sheetId="11">
         <row r="8">
           <cell r="C8">
-            <v>3.7280000000000001E-2</v>
+            <v>3.739E-2</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
@@ -2259,6 +2246,7 @@
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2386,9 +2374,9 @@
     <v>Powered by Refinitiv</v>
     <v>32.81</v>
     <v>20.010000000000002</v>
-    <v>1.5892999999999999</v>
-    <v>0.01</v>
-    <v>4.6749999999999998E-4</v>
+    <v>1.5902000000000001</v>
+    <v>-0.48</v>
+    <v>-2.2429999999999999E-2</v>
     <v>0</v>
     <v>0</v>
     <v>CAD</v>
@@ -2398,25 +2386,25 @@
     <v>XTSE</v>
     <v>XTSE</v>
     <v>250 Bowie Avenue, TORONTO, ON, M6E 4Y2 CA</v>
-    <v>21.51</v>
+    <v>21.17</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45099.833333333336</v>
+    <v>45100.844398148147</v>
     <v>0</v>
-    <v>20.97</v>
-    <v>2211324000</v>
+    <v>20.84</v>
+    <v>2174402000</v>
     <v>CANADA GOOSE HOLDINGS INC.</v>
     <v>CANADA GOOSE HOLDINGS INC.</v>
-    <v>21.32</v>
-    <v>31.1</v>
-    <v>21.39</v>
+    <v>21.13</v>
+    <v>30.4</v>
     <v>21.4</v>
-    <v>21.4</v>
+    <v>20.92</v>
+    <v>20.92</v>
     <v>103938900</v>
     <v>GOOS</v>
     <v>CANADA GOOSE HOLDINGS INC. (XTSE:GOOS)</v>
-    <v>172001</v>
-    <v>245890</v>
+    <v>165353</v>
+    <v>216160</v>
     <v>2013</v>
   </rv>
   <rv s="2">
@@ -3002,10 +2990,10 @@
   <dimension ref="A1:S118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B75" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M89" sqref="M89"/>
+      <selection pane="bottomRight" activeCell="R94" sqref="R94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3745,15 +3733,15 @@
       </c>
       <c r="Q16" s="36">
         <f>R101/J3</f>
-        <v>1.8170287592440428</v>
+        <v>1.7866902218570255</v>
       </c>
       <c r="R16" s="36">
         <f>R101/J28</f>
-        <v>30.417111416781292</v>
+        <v>29.909243466299863</v>
       </c>
       <c r="S16" s="37">
         <f>R101/J107</f>
-        <v>32.424105571847505</v>
+        <v>31.882727272727273</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="19" x14ac:dyDescent="0.25">
@@ -3884,15 +3872,15 @@
       </c>
       <c r="Q19" s="36">
         <f>R101/K3</f>
-        <v>1.5431430565247732</v>
+        <v>1.5173775296580601</v>
       </c>
       <c r="R19" s="36">
         <f>R101/K28</f>
-        <v>14.529067017082786</v>
+        <v>14.286478318002628</v>
       </c>
       <c r="S19" s="37">
         <f>R101/K106</f>
-        <v>14.53861932938856</v>
+        <v>14.295871137409598</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4048,7 +4036,7 @@
       </c>
       <c r="S22" s="42">
         <f>J107/R101</f>
-        <v>3.0841251666422469E-2</v>
+        <v>3.1364945396481422E-2</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="19" x14ac:dyDescent="0.25">
@@ -6087,10 +6075,10 @@
       <c r="J83" s="1">
         <v>-49900000</v>
       </c>
-      <c r="Q83" s="46" t="s">
+      <c r="Q83" s="68" t="s">
         <v>135</v>
       </c>
-      <c r="R83" s="47"/>
+      <c r="R83" s="69"/>
     </row>
     <row r="84" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -6123,10 +6111,10 @@
       <c r="J84" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="Q84" s="48" t="s">
+      <c r="Q84" s="70" t="s">
         <v>136</v>
       </c>
-      <c r="R84" s="49"/>
+      <c r="R84" s="71"/>
     </row>
     <row r="85" spans="1:18" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -6276,10 +6264,10 @@
       <c r="J88" s="1">
         <v>-48100000</v>
       </c>
-      <c r="Q88" s="50" t="s">
+      <c r="Q88" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="R88" s="51">
+      <c r="R88" s="47">
         <f>R85/(R86+R87)</f>
         <v>4.2572944297082228E-2</v>
       </c>
@@ -6402,10 +6390,10 @@
       <c r="J91" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="Q91" s="50" t="s">
+      <c r="Q91" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="R91" s="51">
+      <c r="R91" s="47">
         <f>R89/R90</f>
         <v>0.26310160427807489</v>
       </c>
@@ -6441,10 +6429,10 @@
       <c r="J92" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="Q92" s="52" t="s">
+      <c r="Q92" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="R92" s="53">
+      <c r="R92" s="49">
         <f>R88*(1-R91)</f>
         <v>3.1371934353678771E-2</v>
       </c>
@@ -6480,10 +6468,10 @@
       <c r="J93" s="1">
         <v>-2200000</v>
       </c>
-      <c r="Q93" s="48" t="s">
+      <c r="Q93" s="70" t="s">
         <v>143</v>
       </c>
-      <c r="R93" s="49"/>
+      <c r="R93" s="71"/>
     </row>
     <row r="94" spans="1:18" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -6519,9 +6507,9 @@
       <c r="Q94" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="R94" s="54">
+      <c r="R94" s="50">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.7280000000000001E-2</v>
+        <v>3.739E-2</v>
       </c>
     </row>
     <row r="95" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6558,9 +6546,9 @@
       <c r="Q95" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="R95" s="55" cm="1">
+      <c r="R95" s="51" cm="1">
         <f t="array" ref="R95">_FV(A1,"Beta")</f>
-        <v>1.5892999999999999</v>
+        <v>1.5902000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6597,7 +6585,7 @@
       <c r="Q96" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="R96" s="54">
+      <c r="R96" s="50">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -6632,12 +6620,12 @@
       <c r="J97" s="1">
         <v>-26700000</v>
       </c>
-      <c r="Q97" s="52" t="s">
+      <c r="Q97" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="R97" s="53">
+      <c r="R97" s="49">
         <f>(R94)+((R95)*(R96-R94))</f>
-        <v>0.111532096</v>
+        <v>0.11150922200000002</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -6671,10 +6659,10 @@
       <c r="J98" s="1">
         <v>0</v>
       </c>
-      <c r="Q98" s="48" t="s">
+      <c r="Q98" s="70" t="s">
         <v>148</v>
       </c>
-      <c r="R98" s="49"/>
+      <c r="R98" s="71"/>
     </row>
     <row r="99" spans="1:18" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -6746,12 +6734,12 @@
       <c r="J100" s="10">
         <v>-80700000</v>
       </c>
-      <c r="Q100" s="50" t="s">
+      <c r="Q100" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="R100" s="51">
+      <c r="R100" s="47">
         <f>R99/R103</f>
-        <v>0.25427238305156535</v>
+        <v>0.25747831069641397</v>
       </c>
     </row>
     <row r="101" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6788,9 +6776,9 @@
       <c r="Q101" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="R101" s="56" cm="1">
+      <c r="R101" s="52" cm="1">
         <f t="array" ref="R101">_FV(A1,"Market cap",TRUE)</f>
-        <v>2211324000</v>
+        <v>2174402000</v>
       </c>
     </row>
     <row r="102" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6824,12 +6812,12 @@
       <c r="J102" s="10">
         <v>-1200000</v>
       </c>
-      <c r="Q102" s="50" t="s">
+      <c r="Q102" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="R102" s="51">
+      <c r="R102" s="47">
         <f>R101/R103</f>
-        <v>0.74572761694843459</v>
+        <v>0.74252168930358609</v>
       </c>
     </row>
     <row r="103" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -6863,12 +6851,12 @@
       <c r="J103" s="1">
         <v>287700000</v>
       </c>
-      <c r="Q103" s="52" t="s">
+      <c r="Q103" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="R103" s="57">
+      <c r="R103" s="53">
         <f>R99+R101</f>
-        <v>2965324000</v>
+        <v>2928402000</v>
       </c>
     </row>
     <row r="104" spans="1:18" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -6902,45 +6890,45 @@
       <c r="J104" s="11">
         <v>286500000</v>
       </c>
-      <c r="Q104" s="48" t="s">
+      <c r="Q104" s="70" t="s">
         <v>154</v>
       </c>
-      <c r="R104" s="49"/>
+      <c r="R104" s="71"/>
     </row>
     <row r="105" spans="1:18" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="15" t="s">
         <v>110</v>
       </c>
       <c r="C105" s="1">
-        <f>(C22*(1-$R$91))+C77+C88+C81</f>
+        <f t="shared" ref="C105:J105" si="11">(C22*(1-$R$91))+C77+C88+C81</f>
         <v>-16823063.101604283</v>
       </c>
       <c r="D105" s="1">
-        <f>(D22*(1-$R$91))+D77+D88+D81</f>
+        <f t="shared" si="11"/>
         <v>42434858.823529407</v>
       </c>
       <c r="E105" s="1">
-        <f>(E22*(1-$R$91))+E77+E88+E81</f>
+        <f t="shared" si="11"/>
         <v>87559301.604278058</v>
       </c>
       <c r="F105" s="1">
-        <f>(F22*(1-$R$91))+F77+F88+F81</f>
+        <f t="shared" si="11"/>
         <v>36647914.438502669</v>
       </c>
       <c r="G105" s="1">
-        <f>(G22*(1-$R$91))+G77+G88+G81</f>
+        <f t="shared" si="11"/>
         <v>11758181.818181813</v>
       </c>
       <c r="H105" s="1">
-        <f>(H22*(1-$R$91))+H77+H88+H81</f>
+        <f t="shared" si="11"/>
         <v>246343422.45989305</v>
       </c>
       <c r="I105" s="1">
-        <f>(I22*(1-$R$91))+I77+I88+I81</f>
+        <f t="shared" si="11"/>
         <v>92771978.609625638</v>
       </c>
       <c r="J105" s="1">
-        <f>(J22*(1-$R$91))+J77+J88+J81</f>
+        <f t="shared" si="11"/>
         <v>5054117.6470588148</v>
       </c>
       <c r="K105" s="30">
@@ -6948,19 +6936,19 @@
         <v>6191325.130393276</v>
       </c>
       <c r="L105" s="30">
-        <f t="shared" ref="L105:O105" si="11">K105*(1+$R$106)</f>
+        <f t="shared" ref="L105:O105" si="12">K105*(1+$R$106)</f>
         <v>7584411.2755361907</v>
       </c>
       <c r="M105" s="30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9290950.3515003733</v>
       </c>
       <c r="N105" s="30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>11381471.191109989</v>
       </c>
       <c r="O105" s="30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>13942372.047349049</v>
       </c>
       <c r="P105" s="27" t="s">
@@ -6971,7 +6959,7 @@
       </c>
       <c r="R105" s="32">
         <f>(R100*R92)+(R102*R97)</f>
-        <v>9.1149580672391206E-2</v>
+        <v>9.087560855303263E-2</v>
       </c>
     </row>
     <row r="106" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6980,35 +6968,35 @@
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="16">
-        <f t="shared" ref="C106:J106" si="12">(C107/B107)-1</f>
+        <f t="shared" ref="C106:J106" si="13">(C107/B107)-1</f>
         <v>26.117929050814958</v>
       </c>
       <c r="D106" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-1.4617805119502192</v>
       </c>
       <c r="E106" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.0769466350202892</v>
       </c>
       <c r="F106" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.73926778604812182</v>
       </c>
       <c r="G106" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.99170124481327804</v>
       </c>
       <c r="H106" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1307.5</v>
       </c>
       <c r="I106" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.56285823461979367</v>
       </c>
       <c r="J106" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.40384615384615385</v>
       </c>
       <c r="K106" s="26">
@@ -7072,17 +7060,17 @@
       <c r="L107" s="27"/>
       <c r="M107" s="27"/>
       <c r="N107" s="27"/>
-      <c r="O107" s="58">
+      <c r="O107" s="54">
         <f>O106*(1+R107)/(R108-R107)</f>
-        <v>12396148118.626585</v>
-      </c>
-      <c r="P107" s="59" t="s">
+        <v>12447702844.974337</v>
+      </c>
+      <c r="P107" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="Q107" s="60" t="s">
+      <c r="Q107" s="56" t="s">
         <v>156</v>
       </c>
-      <c r="R107" s="61">
+      <c r="R107" s="57">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
@@ -7097,132 +7085,132 @@
       <c r="H108" s="13"/>
       <c r="I108" s="13"/>
       <c r="J108" s="13"/>
-      <c r="K108" s="58">
-        <f t="shared" ref="K108:N108" si="13">K107+K106</f>
+      <c r="K108" s="54">
+        <f t="shared" ref="K108:N108" si="14">K107+K106</f>
         <v>152100000</v>
       </c>
-      <c r="L108" s="58">
-        <f t="shared" si="13"/>
+      <c r="L108" s="54">
+        <f t="shared" si="14"/>
         <v>231300000</v>
       </c>
-      <c r="M108" s="58">
-        <f t="shared" si="13"/>
+      <c r="M108" s="54">
+        <f t="shared" si="14"/>
         <v>271900000</v>
       </c>
-      <c r="N108" s="58">
-        <f t="shared" si="13"/>
+      <c r="N108" s="54">
+        <f t="shared" si="14"/>
         <v>738800000</v>
       </c>
-      <c r="O108" s="58">
+      <c r="O108" s="54">
         <f>O107+O106</f>
-        <v>13196148118.626585</v>
-      </c>
-      <c r="P108" s="59" t="s">
+        <v>13247702844.974337</v>
+      </c>
+      <c r="P108" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="Q108" s="62" t="s">
+      <c r="Q108" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="R108" s="63">
+      <c r="R108" s="59">
         <f>R105</f>
-        <v>9.1149580672391206E-2</v>
+        <v>9.087560855303263E-2</v>
       </c>
     </row>
     <row r="109" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="K109" s="64" t="s">
+      <c r="K109" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="L109" s="65"/>
+      <c r="L109" s="73"/>
     </row>
     <row r="110" spans="1:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="K110" s="66" t="s">
+      <c r="K110" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="L110" s="56">
+      <c r="L110" s="52">
         <f>NPV(R108,K108,L108,M108,N108,O108)</f>
-        <v>9595647627.1856422</v>
+        <v>9640553283.0583858</v>
       </c>
     </row>
     <row r="111" spans="1:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="K111" s="66" t="s">
+      <c r="K111" s="60" t="s">
         <v>160</v>
       </c>
-      <c r="L111" s="56">
+      <c r="L111" s="52">
         <f>J40</f>
         <v>286500000</v>
       </c>
     </row>
     <row r="112" spans="1:18" ht="20" x14ac:dyDescent="0.25">
-      <c r="K112" s="66" t="s">
+      <c r="K112" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="L112" s="56">
+      <c r="L112" s="52">
         <f>R99</f>
         <v>754000000</v>
       </c>
     </row>
     <row r="113" spans="11:12" ht="20" x14ac:dyDescent="0.25">
-      <c r="K113" s="66" t="s">
+      <c r="K113" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="L113" s="56">
+      <c r="L113" s="52">
         <f>L110+L111-L112</f>
-        <v>9128147627.1856422</v>
+        <v>9173053283.0583858</v>
       </c>
     </row>
     <row r="114" spans="11:12" ht="20" x14ac:dyDescent="0.25">
-      <c r="K114" s="66" t="s">
+      <c r="K114" s="60" t="s">
         <v>162</v>
       </c>
-      <c r="L114" s="67">
+      <c r="L114" s="61">
         <f>J34*(1+(5*P16))</f>
         <v>100018654.48965675</v>
       </c>
     </row>
     <row r="115" spans="11:12" ht="20" x14ac:dyDescent="0.25">
-      <c r="K115" s="68" t="s">
+      <c r="K115" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="L115" s="69">
+      <c r="L115" s="63">
         <f>L113/L114</f>
-        <v>91.264451354218266</v>
+        <v>91.713424159360201</v>
       </c>
     </row>
     <row r="116" spans="11:12" ht="20" x14ac:dyDescent="0.25">
-      <c r="K116" s="66" t="s">
+      <c r="K116" s="60" t="s">
         <v>164</v>
       </c>
-      <c r="L116" s="70" cm="1">
+      <c r="L116" s="64" cm="1">
         <f t="array" ref="L116">_FV(A1,"Price")</f>
-        <v>21.4</v>
+        <v>20.92</v>
       </c>
     </row>
     <row r="117" spans="11:12" ht="20" x14ac:dyDescent="0.25">
-      <c r="K117" s="71" t="s">
+      <c r="K117" s="65" t="s">
         <v>165</v>
       </c>
-      <c r="L117" s="72">
+      <c r="L117" s="66">
         <f>L115/L116-1</f>
-        <v>3.2646939885148729</v>
+        <v>3.3840068909828007</v>
       </c>
     </row>
     <row r="118" spans="11:12" ht="20" x14ac:dyDescent="0.25">
-      <c r="K118" s="71" t="s">
+      <c r="K118" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="L118" s="73" t="str">
+      <c r="L118" s="67" t="str">
         <f>IF(L115&gt;L116,"BUY","SELL")</f>
         <v>BUY</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="K109:L109"/>
     <mergeCell ref="Q83:R83"/>
     <mergeCell ref="Q84:R84"/>
     <mergeCell ref="Q93:R93"/>
     <mergeCell ref="Q98:R98"/>
     <mergeCell ref="Q104:R104"/>
-    <mergeCell ref="K109:L109"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/GOOS" display="ROIC.AI | GOOS" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
